--- a/salida/reporte 3 Grupo Carosa.xlsx
+++ b/salida/reporte 3 Grupo Carosa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="191">
   <si>
     <t>ORDEN</t>
   </si>
@@ -220,15 +220,15 @@
     <t>FARMACIA PACALLI</t>
   </si>
   <si>
+    <t>FARMACIA LA SALUD</t>
+  </si>
+  <si>
+    <t>CLIENTE CONTADO/CREDITO FISCAL</t>
+  </si>
+  <si>
     <t>FARMACIA SAN BENITO</t>
   </si>
   <si>
-    <t>FARMACIA LA SALUD</t>
-  </si>
-  <si>
-    <t>CLIENTE CONTADO/CREDITO FISCAL</t>
-  </si>
-  <si>
     <t>FARMACIA SAN JOSE</t>
   </si>
   <si>
@@ -277,9 +277,6 @@
     <t>NOR-LIPOX 20 MG RECUB</t>
   </si>
   <si>
-    <t>NOR-SILIUM 10 MG</t>
-  </si>
-  <si>
     <t>NOR-TRIPAR 100MG PPS x60ML</t>
   </si>
   <si>
@@ -304,12 +301,6 @@
     <t>DULOXETEG 60 MG CAP</t>
   </si>
   <si>
-    <t>IRBESARTEG H 150/12.5 MGTABREC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUETIATEG 25 MG TAB REC       </t>
-  </si>
-  <si>
     <t>GLIMEPITEG 4 MG TAB</t>
   </si>
   <si>
@@ -319,12 +310,6 @@
     <t>LEVOFLOXATEG 500 MG TAB REC</t>
   </si>
   <si>
-    <t>NITAZOXATEG 500MG TAB REC</t>
-  </si>
-  <si>
-    <t>OTILOTEG 40 MG TAB</t>
-  </si>
-  <si>
     <t>ORAL-DENT TG 100 MG SOL</t>
   </si>
   <si>
@@ -349,9 +334,6 @@
     <t>CAJ X 30 TAB</t>
   </si>
   <si>
-    <t>CAJx20TAB</t>
-  </si>
-  <si>
     <t>FCOx60ML</t>
   </si>
   <si>
@@ -373,12 +355,6 @@
     <t>CAJx14CAP</t>
   </si>
   <si>
-    <t>CAJx14TAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAJx30TAB   </t>
-  </si>
-  <si>
     <t>CAJx15TAB</t>
   </si>
   <si>
@@ -388,9 +364,6 @@
     <t>CAJx7TAB</t>
   </si>
   <si>
-    <t>CAJ x6TAB</t>
-  </si>
-  <si>
     <t>CAJx10TAB</t>
   </si>
   <si>
@@ -418,18 +391,15 @@
     <t xml:space="preserve">Sist.Nerv.Central   </t>
   </si>
   <si>
+    <t>Analgésico-Antiinfla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antiinfecciosos     </t>
+  </si>
+  <si>
     <t xml:space="preserve">Cardiovasculares    </t>
   </si>
   <si>
-    <t>Analgésico-Antiinfla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antiinfecciosos     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tracto Digestivo    </t>
-  </si>
-  <si>
     <t>367</t>
   </si>
   <si>
@@ -448,9 +418,6 @@
     <t>251</t>
   </si>
   <si>
-    <t>271</t>
-  </si>
-  <si>
     <t>276</t>
   </si>
   <si>
@@ -475,12 +442,6 @@
     <t>DUT</t>
   </si>
   <si>
-    <t>IBH</t>
-  </si>
-  <si>
-    <t>QUT</t>
-  </si>
-  <si>
     <t>GM4</t>
   </si>
   <si>
@@ -490,12 +451,6 @@
     <t>LVF</t>
   </si>
   <si>
-    <t>NT5</t>
-  </si>
-  <si>
-    <t>OTL</t>
-  </si>
-  <si>
     <t>DT7</t>
   </si>
   <si>
@@ -520,9 +475,6 @@
     <t xml:space="preserve">Nor-Lipox 20MG      </t>
   </si>
   <si>
-    <t xml:space="preserve">Nor-Silium 10MG     </t>
-  </si>
-  <si>
     <t xml:space="preserve">Nor-Tripar 100MG S  </t>
   </si>
   <si>
@@ -547,12 +499,6 @@
     <t xml:space="preserve">Duloxeteg           </t>
   </si>
   <si>
-    <t xml:space="preserve">Irbesarteg H        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quetiateg           </t>
-  </si>
-  <si>
     <t xml:space="preserve">Glimepiteg 4 Mg     </t>
   </si>
   <si>
@@ -560,12 +506,6 @@
   </si>
   <si>
     <t xml:space="preserve">Levofloxateg 500 Mg </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nitazoxateg 500 Mg  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otiloteg 40 Mg      </t>
   </si>
   <si>
     <t xml:space="preserve">Oral-Dent 100MG Sol </t>
@@ -1004,7 +944,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM38"/>
+  <dimension ref="A1:AM30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1176,58 +1116,58 @@
         <v>81</v>
       </c>
       <c r="S2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="T2">
         <v>82</v>
       </c>
       <c r="U2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="V2">
         <v>822</v>
       </c>
       <c r="W2" t="s">
+        <v>119</v>
+      </c>
+      <c r="X2" t="s">
         <v>128</v>
       </c>
-      <c r="X2" t="s">
-        <v>138</v>
-      </c>
       <c r="Y2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="Z2">
         <v>68.47056000000001</v>
       </c>
       <c r="AA2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>186</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>187</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>194</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>198</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>206</v>
       </c>
       <c r="AK2">
         <v>1</v>
@@ -1236,7 +1176,7 @@
         <v>68.47056000000001</v>
       </c>
       <c r="AM2" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:39">
@@ -1289,58 +1229,58 @@
         <v>82</v>
       </c>
       <c r="S3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="T3">
         <v>82</v>
       </c>
       <c r="U3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="V3">
         <v>824</v>
       </c>
       <c r="W3" t="s">
+        <v>120</v>
+      </c>
+      <c r="X3" t="s">
         <v>129</v>
       </c>
-      <c r="X3" t="s">
-        <v>139</v>
-      </c>
       <c r="Y3" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="Z3">
         <v>10.965375</v>
       </c>
       <c r="AA3" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="AB3">
         <v>0</v>
       </c>
       <c r="AC3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>187</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>187</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>207</v>
       </c>
       <c r="AK3">
         <v>1</v>
@@ -1349,7 +1289,7 @@
         <v>10.965375</v>
       </c>
       <c r="AM3" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -1402,58 +1342,58 @@
         <v>83</v>
       </c>
       <c r="S4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="T4">
         <v>82</v>
       </c>
       <c r="U4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="V4">
         <v>824</v>
       </c>
       <c r="W4" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="X4" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="Y4" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="Z4">
         <v>19.93682666666667</v>
       </c>
       <c r="AA4" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="AB4">
         <v>0</v>
       </c>
       <c r="AC4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>187</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>193</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>203</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>207</v>
       </c>
       <c r="AK4">
         <v>2</v>
@@ -1462,7 +1402,7 @@
         <v>39.87365333333334</v>
       </c>
       <c r="AM4" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:39">
@@ -1515,58 +1455,58 @@
         <v>84</v>
       </c>
       <c r="S5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="T5">
         <v>82</v>
       </c>
       <c r="U5" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="V5">
         <v>824</v>
       </c>
       <c r="W5" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="X5" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="Y5" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="Z5">
         <v>9.0015</v>
       </c>
       <c r="AA5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>186</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>206</v>
       </c>
       <c r="AK5">
         <v>1</v>
@@ -1575,7 +1515,7 @@
         <v>9.0015</v>
       </c>
       <c r="AM5" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:39">
@@ -1628,58 +1568,58 @@
         <v>84</v>
       </c>
       <c r="S6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="T6">
         <v>82</v>
       </c>
       <c r="U6" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="V6">
         <v>824</v>
       </c>
       <c r="W6" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="X6" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="Y6" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="Z6">
         <v>9.0015</v>
       </c>
       <c r="AA6" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>186</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>206</v>
       </c>
       <c r="AK6">
         <v>1</v>
@@ -1688,7 +1628,7 @@
         <v>9.0015</v>
       </c>
       <c r="AM6" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -1741,58 +1681,58 @@
         <v>84</v>
       </c>
       <c r="S7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="T7">
         <v>82</v>
       </c>
       <c r="U7" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="V7">
         <v>824</v>
       </c>
       <c r="W7" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="X7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="Y7" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="Z7">
         <v>9.0015</v>
       </c>
       <c r="AA7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>186</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>206</v>
       </c>
       <c r="AK7">
         <v>3</v>
@@ -1801,7 +1741,7 @@
         <v>27.0045</v>
       </c>
       <c r="AM7" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -1854,58 +1794,58 @@
         <v>84</v>
       </c>
       <c r="S8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="T8">
         <v>82</v>
       </c>
       <c r="U8" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="V8">
         <v>824</v>
       </c>
       <c r="W8" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="X8" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="Y8" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="Z8">
         <v>9.0015</v>
       </c>
       <c r="AA8" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>186</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>206</v>
       </c>
       <c r="AK8">
         <v>1</v>
@@ -1914,7 +1854,7 @@
         <v>9.0015</v>
       </c>
       <c r="AM8" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -1949,85 +1889,85 @@
         <v>42</v>
       </c>
       <c r="L9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M9">
-        <v>401007</v>
+        <v>603008</v>
       </c>
       <c r="N9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="P9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q9">
-        <v>2009234</v>
+        <v>2009944</v>
       </c>
       <c r="R9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="T9">
         <v>82</v>
       </c>
       <c r="U9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="V9">
         <v>824</v>
       </c>
       <c r="W9" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="X9" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="Y9" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="Z9">
-        <v>9.0015</v>
+        <v>6.582233333333333</v>
       </c>
       <c r="AA9" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ9" t="s">
         <v>186</v>
       </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>206</v>
-      </c>
       <c r="AK9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL9">
-        <v>18.003</v>
+        <v>6.582233333333333</v>
       </c>
       <c r="AM9" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:39">
@@ -2062,16 +2002,16 @@
         <v>42</v>
       </c>
       <c r="L10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M10">
-        <v>603008</v>
+        <v>601013</v>
       </c>
       <c r="N10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q10">
         <v>2009944</v>
@@ -2080,58 +2020,58 @@
         <v>85</v>
       </c>
       <c r="S10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="T10">
         <v>82</v>
       </c>
       <c r="U10" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="V10">
         <v>824</v>
       </c>
       <c r="W10" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="X10" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Y10" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="Z10">
         <v>6.582233333333333</v>
       </c>
       <c r="AA10" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>186</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>194</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>198</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>206</v>
       </c>
       <c r="AK10">
         <v>1</v>
@@ -2140,7 +2080,7 @@
         <v>6.582233333333333</v>
       </c>
       <c r="AM10" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:39">
@@ -2175,85 +2115,85 @@
         <v>42</v>
       </c>
       <c r="L11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M11">
-        <v>601013</v>
+        <v>802018</v>
       </c>
       <c r="N11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="P11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q11">
-        <v>2009944</v>
+        <v>2013534</v>
       </c>
       <c r="R11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="T11">
         <v>82</v>
       </c>
       <c r="U11" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="V11">
         <v>824</v>
       </c>
       <c r="W11" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="X11" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="Y11" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="Z11">
-        <v>6.582233333333333</v>
+        <v>14.61809333333334</v>
       </c>
       <c r="AA11" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
+        <v>166</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>168</v>
       </c>
       <c r="AC11" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="AD11" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="AG11" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="AH11" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="AI11" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="AJ11" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="AK11">
         <v>1</v>
       </c>
       <c r="AL11">
-        <v>6.582233333333333</v>
+        <v>14.61809333333334</v>
       </c>
       <c r="AM11" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:39">
@@ -2288,85 +2228,85 @@
         <v>42</v>
       </c>
       <c r="L12" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M12">
-        <v>802018</v>
+        <v>419001</v>
       </c>
       <c r="N12" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="P12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q12">
-        <v>2013534</v>
+        <v>2018102</v>
       </c>
       <c r="R12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="S12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="T12">
         <v>82</v>
       </c>
       <c r="U12" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="V12">
         <v>824</v>
       </c>
       <c r="W12" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="X12" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="Y12" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="Z12">
-        <v>14.61809333333334</v>
+        <v>5.007792</v>
       </c>
       <c r="AA12" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ12" t="s">
         <v>186</v>
       </c>
-      <c r="AB12" t="s">
-        <v>188</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>187</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>203</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>207</v>
-      </c>
       <c r="AK12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AL12">
-        <v>14.61809333333334</v>
+        <v>20.031168</v>
       </c>
       <c r="AM12" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -2401,85 +2341,85 @@
         <v>42</v>
       </c>
       <c r="L13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M13">
-        <v>601256</v>
+        <v>802018</v>
       </c>
       <c r="N13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="P13" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="Q13">
-        <v>2017215</v>
+        <v>2018102</v>
       </c>
       <c r="R13" t="s">
         <v>87</v>
       </c>
       <c r="S13" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="T13">
         <v>82</v>
       </c>
       <c r="U13" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="V13">
         <v>824</v>
       </c>
       <c r="W13" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="X13" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="Y13" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="Z13">
-        <v>4.283265</v>
+        <v>5.007792</v>
       </c>
       <c r="AA13" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>186</v>
       </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>187</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>193</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>203</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>207</v>
-      </c>
       <c r="AK13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL13">
-        <v>12.849795</v>
+        <v>25.03896</v>
       </c>
       <c r="AM13" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:39">
@@ -2514,85 +2454,85 @@
         <v>42</v>
       </c>
       <c r="L14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M14">
-        <v>419001</v>
+        <v>603008</v>
       </c>
       <c r="N14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P14" t="s">
         <v>78</v>
       </c>
       <c r="Q14">
-        <v>2018102</v>
+        <v>2019044</v>
       </c>
       <c r="R14" t="s">
         <v>88</v>
       </c>
       <c r="S14" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="T14">
         <v>82</v>
       </c>
       <c r="U14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="V14">
         <v>824</v>
       </c>
       <c r="W14" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="X14" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="Y14" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="Z14">
-        <v>5.007792</v>
+        <v>5.2706</v>
       </c>
       <c r="AA14" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ14" t="s">
         <v>186</v>
       </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>193</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>206</v>
-      </c>
       <c r="AK14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AL14">
-        <v>20.031168</v>
+        <v>5.2706</v>
       </c>
       <c r="AM14" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:39">
@@ -2627,85 +2567,85 @@
         <v>42</v>
       </c>
       <c r="L15" t="s">
-        <v>44</v>
-      </c>
-      <c r="M15">
-        <v>802018</v>
+        <v>51</v>
+      </c>
+      <c r="M15" t="s">
+        <v>58</v>
       </c>
       <c r="N15" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="P15" t="s">
         <v>79</v>
       </c>
       <c r="Q15">
-        <v>2018102</v>
+        <v>2021553</v>
       </c>
       <c r="R15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="S15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="T15">
         <v>82</v>
       </c>
       <c r="U15" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="V15">
         <v>824</v>
       </c>
       <c r="W15" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="X15" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="Y15" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="Z15">
-        <v>5.007792</v>
+        <v>7.532866666666668</v>
       </c>
       <c r="AA15" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="AB15">
         <v>0</v>
       </c>
       <c r="AC15" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="AD15" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="AE15">
         <v>0</v>
       </c>
       <c r="AF15" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="AG15" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="AH15" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="AI15" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="AJ15" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="AK15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AL15">
-        <v>25.03896</v>
+        <v>7.532866666666668</v>
       </c>
       <c r="AM15" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:39">
@@ -2740,85 +2680,85 @@
         <v>42</v>
       </c>
       <c r="L16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M16">
-        <v>603008</v>
+        <v>601256</v>
       </c>
       <c r="N16" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P16" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="Q16">
-        <v>2019044</v>
+        <v>2023115</v>
       </c>
       <c r="R16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="S16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="T16">
         <v>82</v>
       </c>
       <c r="U16" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="V16">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="W16" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="X16" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="Y16" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="Z16">
-        <v>5.2706</v>
+        <v>13.412955</v>
       </c>
       <c r="AA16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ16" t="s">
         <v>186</v>
       </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>206</v>
-      </c>
       <c r="AK16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AL16">
-        <v>5.2706</v>
+        <v>67.064775</v>
       </c>
       <c r="AM16" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:39">
@@ -2853,85 +2793,85 @@
         <v>42</v>
       </c>
       <c r="L17" t="s">
-        <v>51</v>
-      </c>
-      <c r="M17" t="s">
-        <v>58</v>
+        <v>45</v>
+      </c>
+      <c r="M17">
+        <v>401007</v>
       </c>
       <c r="N17" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="P17" t="s">
         <v>79</v>
       </c>
       <c r="Q17">
-        <v>2021553</v>
+        <v>2023115</v>
       </c>
       <c r="R17" t="s">
         <v>90</v>
       </c>
       <c r="S17" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="T17">
         <v>82</v>
       </c>
       <c r="U17" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="V17">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="W17" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="X17" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="Y17" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="Z17">
-        <v>7.532866666666668</v>
+        <v>13.412955</v>
       </c>
       <c r="AA17" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ17" t="s">
         <v>186</v>
       </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>187</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>193</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>203</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>207</v>
-      </c>
       <c r="AK17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AL17">
-        <v>7.532866666666668</v>
+        <v>67.064775</v>
       </c>
       <c r="AM17" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:39">
@@ -2966,76 +2906,76 @@
         <v>42</v>
       </c>
       <c r="L18" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M18">
-        <v>601256</v>
+        <v>420007</v>
       </c>
       <c r="N18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P18" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="Q18">
         <v>2023115</v>
       </c>
       <c r="R18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S18" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="T18">
         <v>82</v>
       </c>
       <c r="U18" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="V18">
         <v>822</v>
       </c>
       <c r="W18" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="X18" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="Y18" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="Z18">
         <v>13.412955</v>
       </c>
       <c r="AA18" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ18" t="s">
         <v>186</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>187</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>206</v>
       </c>
       <c r="AK18">
         <v>5</v>
@@ -3044,7 +2984,7 @@
         <v>67.064775</v>
       </c>
       <c r="AM18" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:39">
@@ -3079,13 +3019,13 @@
         <v>42</v>
       </c>
       <c r="L19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M19">
-        <v>401007</v>
+        <v>601900</v>
       </c>
       <c r="N19" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="P19" t="s">
         <v>79</v>
@@ -3094,61 +3034,61 @@
         <v>2023115</v>
       </c>
       <c r="R19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S19" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="T19">
         <v>82</v>
       </c>
       <c r="U19" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="V19">
         <v>822</v>
       </c>
       <c r="W19" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="X19" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="Y19" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="Z19">
         <v>13.412955</v>
       </c>
       <c r="AA19" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ19" t="s">
         <v>186</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>187</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>206</v>
       </c>
       <c r="AK19">
         <v>5</v>
@@ -3157,7 +3097,7 @@
         <v>67.064775</v>
       </c>
       <c r="AM19" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:39">
@@ -3192,85 +3132,85 @@
         <v>42</v>
       </c>
       <c r="L20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M20">
-        <v>420007</v>
+        <v>607001</v>
       </c>
       <c r="N20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q20">
         <v>2023115</v>
       </c>
       <c r="R20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S20" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="T20">
         <v>82</v>
       </c>
       <c r="U20" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="V20">
         <v>822</v>
       </c>
       <c r="W20" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="X20" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="Y20" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="Z20">
         <v>13.412955</v>
       </c>
       <c r="AA20" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ20" t="s">
         <v>186</v>
       </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>187</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>206</v>
-      </c>
       <c r="AK20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AL20">
-        <v>67.064775</v>
+        <v>134.12955</v>
       </c>
       <c r="AM20" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:39">
@@ -3305,85 +3245,85 @@
         <v>42</v>
       </c>
       <c r="L21" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M21">
-        <v>601900</v>
+        <v>603008</v>
       </c>
       <c r="N21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="P21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q21">
-        <v>2023115</v>
+        <v>2045045</v>
       </c>
       <c r="R21" t="s">
         <v>91</v>
       </c>
       <c r="S21" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="T21">
         <v>82</v>
       </c>
       <c r="U21" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="V21">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="W21" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="X21" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="Y21" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="Z21">
-        <v>13.412955</v>
+        <v>2.713516666666667</v>
       </c>
       <c r="AA21" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="AB21">
         <v>0</v>
       </c>
       <c r="AC21" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ21" t="s">
         <v>187</v>
       </c>
-      <c r="AD21" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>206</v>
-      </c>
       <c r="AK21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AL21">
-        <v>67.064775</v>
+        <v>5.427033333333333</v>
       </c>
       <c r="AM21" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:39">
@@ -3418,85 +3358,85 @@
         <v>42</v>
       </c>
       <c r="L22" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="M22">
-        <v>607001</v>
+        <v>601014</v>
       </c>
       <c r="N22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q22">
-        <v>2023115</v>
+        <v>2060974</v>
       </c>
       <c r="R22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S22" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="T22">
         <v>82</v>
       </c>
       <c r="U22" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="V22">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="W22" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="X22" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="Y22" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="Z22">
-        <v>13.412955</v>
+        <v>6.919166666666666</v>
       </c>
       <c r="AA22" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="AB22">
         <v>0</v>
       </c>
       <c r="AC22" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ22" t="s">
         <v>187</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>206</v>
       </c>
       <c r="AK22">
         <v>10</v>
       </c>
       <c r="AL22">
-        <v>134.12955</v>
+        <v>69.19166666666666</v>
       </c>
       <c r="AM22" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:39">
@@ -3531,85 +3471,85 @@
         <v>42</v>
       </c>
       <c r="L23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M23">
-        <v>603008</v>
+        <v>601256</v>
       </c>
       <c r="N23" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P23" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="Q23">
-        <v>2045045</v>
+        <v>2090168</v>
       </c>
       <c r="R23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="S23" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="T23">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="U23" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="V23">
-        <v>820</v>
+        <v>72</v>
       </c>
       <c r="W23" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="X23" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="Y23" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="Z23">
-        <v>2.713516666666667</v>
+        <v>3.743298</v>
       </c>
       <c r="AA23" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="AB23">
         <v>0</v>
       </c>
       <c r="AC23" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="AD23" t="s">
-        <v>187</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
+        <v>166</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>170</v>
       </c>
       <c r="AF23">
         <v>0</v>
       </c>
       <c r="AG23" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="AH23" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="AI23" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="AJ23" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="AK23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL23">
-        <v>5.427033333333333</v>
+        <v>11.229894</v>
       </c>
       <c r="AM23" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:39">
@@ -3644,85 +3584,85 @@
         <v>42</v>
       </c>
       <c r="L24" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="M24">
-        <v>601014</v>
+        <v>1412001</v>
       </c>
       <c r="N24" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q24">
+        <v>2090403</v>
+      </c>
+      <c r="R24" t="s">
+        <v>94</v>
+      </c>
+      <c r="S24" t="s">
+        <v>112</v>
+      </c>
+      <c r="T24">
+        <v>7</v>
+      </c>
+      <c r="U24" t="s">
+        <v>118</v>
+      </c>
+      <c r="V24">
         <v>74</v>
       </c>
-      <c r="P24" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q24">
-        <v>2060974</v>
-      </c>
-      <c r="R24" t="s">
-        <v>93</v>
-      </c>
-      <c r="S24" t="s">
-        <v>117</v>
-      </c>
-      <c r="T24">
-        <v>82</v>
-      </c>
-      <c r="U24" t="s">
-        <v>126</v>
-      </c>
-      <c r="V24">
-        <v>826</v>
-      </c>
       <c r="W24" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="X24" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="Y24" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="Z24">
-        <v>6.919166666666666</v>
+        <v>17.96424</v>
       </c>
       <c r="AA24" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="AB24">
         <v>0</v>
       </c>
       <c r="AC24" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="AD24" t="s">
-        <v>187</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>193</v>
+        <v>167</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
       </c>
       <c r="AG24" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="AH24" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="AI24" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="AJ24" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="AK24">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AL24">
-        <v>69.19166666666666</v>
+        <v>35.92847999999999</v>
       </c>
       <c r="AM24" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:39">
@@ -3757,85 +3697,85 @@
         <v>42</v>
       </c>
       <c r="L25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M25">
-        <v>601256</v>
+        <v>802018</v>
       </c>
       <c r="N25" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="P25" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="Q25">
-        <v>2090168</v>
+        <v>2090885</v>
       </c>
       <c r="R25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S25" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="T25">
         <v>7</v>
       </c>
       <c r="U25" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="V25">
         <v>72</v>
       </c>
       <c r="W25" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="X25" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="Y25" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="Z25">
-        <v>3.743298</v>
+        <v>4.482135</v>
       </c>
       <c r="AA25" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="AB25">
         <v>0</v>
       </c>
       <c r="AC25" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="AD25" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="AE25" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>189</v>
+      </c>
+      <c r="AK25">
+        <v>2</v>
+      </c>
+      <c r="AL25">
+        <v>8.964269999999999</v>
+      </c>
+      <c r="AM25" t="s">
         <v>190</v>
-      </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>194</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>198</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>204</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>208</v>
-      </c>
-      <c r="AK25">
-        <v>3</v>
-      </c>
-      <c r="AL25">
-        <v>11.229894</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:39">
@@ -3870,85 +3810,85 @@
         <v>42</v>
       </c>
       <c r="L26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M26">
-        <v>1412001</v>
+        <v>201141</v>
       </c>
       <c r="N26" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q26">
-        <v>2090403</v>
+        <v>2091543</v>
       </c>
       <c r="R26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S26" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="T26">
         <v>7</v>
       </c>
       <c r="U26" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="V26">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="W26" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="X26" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="Y26" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="Z26">
-        <v>17.96424</v>
+        <v>3.28389</v>
       </c>
       <c r="AA26" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="AB26">
         <v>0</v>
       </c>
       <c r="AC26" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ26" t="s">
         <v>187</v>
       </c>
-      <c r="AD26" t="s">
-        <v>187</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>191</v>
-      </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>196</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>200</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>204</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>208</v>
-      </c>
       <c r="AK26">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AL26">
-        <v>35.92847999999999</v>
+        <v>26.27112</v>
       </c>
       <c r="AM26" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:39">
@@ -3983,85 +3923,85 @@
         <v>42</v>
       </c>
       <c r="L27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M27">
-        <v>201141</v>
+        <v>301008</v>
       </c>
       <c r="N27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q27">
-        <v>2090519</v>
+        <v>2091543</v>
       </c>
       <c r="R27" t="s">
         <v>96</v>
       </c>
       <c r="S27" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="T27">
         <v>7</v>
       </c>
       <c r="U27" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="V27">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W27" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="X27" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="Y27" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z27">
+        <v>3.28389</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="s">
         <v>177</v>
       </c>
-      <c r="Z27">
-        <v>5.6261228</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="s">
+      <c r="AH27" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ27" t="s">
         <v>187</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>191</v>
-      </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>194</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>198</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>204</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>208</v>
       </c>
       <c r="AK27">
         <v>8</v>
       </c>
       <c r="AL27">
-        <v>45.0089824</v>
+        <v>26.27112</v>
       </c>
       <c r="AM27" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:39">
@@ -4096,85 +4036,85 @@
         <v>42</v>
       </c>
       <c r="L28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M28">
-        <v>301008</v>
+        <v>612003</v>
       </c>
       <c r="N28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q28">
-        <v>2090519</v>
+        <v>2091628</v>
       </c>
       <c r="R28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="S28" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="T28">
         <v>7</v>
       </c>
       <c r="U28" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="V28">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="W28" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="X28" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="Y28" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="Z28">
-        <v>5.6261228</v>
+        <v>13.001141</v>
       </c>
       <c r="AA28" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="AB28">
         <v>0</v>
       </c>
       <c r="AC28" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="AD28" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>191</v>
+        <v>167</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
       </c>
       <c r="AG28" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="AH28" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="AI28" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="AJ28" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="AK28">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AL28">
-        <v>45.0089824</v>
+        <v>13.001141</v>
       </c>
       <c r="AM28" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:39">
@@ -4209,85 +4149,85 @@
         <v>42</v>
       </c>
       <c r="L29" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="M29">
-        <v>601419</v>
+        <v>301008</v>
       </c>
       <c r="N29" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="P29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q29">
-        <v>2090663</v>
+        <v>2092300</v>
       </c>
       <c r="R29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S29" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="T29">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="U29" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="V29">
-        <v>74</v>
+        <v>822</v>
       </c>
       <c r="W29" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="X29" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="Y29" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z29">
+        <v>3.08448</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH29" t="s">
         <v>178</v>
       </c>
-      <c r="Z29">
-        <v>10.368708</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-      <c r="AC29" t="s">
+      <c r="AI29" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ29" t="s">
         <v>187</v>
       </c>
-      <c r="AD29" t="s">
-        <v>187</v>
-      </c>
-      <c r="AE29">
-        <v>0</v>
-      </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>198</v>
-      </c>
-      <c r="AI29">
-        <v>0</v>
-      </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
       <c r="AK29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL29">
-        <v>10.368708</v>
+        <v>9.253440000000001</v>
       </c>
       <c r="AM29" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:39">
@@ -4334,977 +4274,73 @@
         <v>79</v>
       </c>
       <c r="Q30">
-        <v>2090885</v>
+        <v>2092492</v>
       </c>
       <c r="R30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S30" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="T30">
         <v>7</v>
       </c>
       <c r="U30" t="s">
+        <v>118</v>
+      </c>
+      <c r="V30">
+        <v>71</v>
+      </c>
+      <c r="W30" t="s">
         <v>127</v>
       </c>
-      <c r="V30">
-        <v>72</v>
-      </c>
-      <c r="W30" t="s">
-        <v>132</v>
-      </c>
       <c r="X30" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="Y30" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="Z30">
-        <v>4.482135</v>
+        <v>4.74</v>
       </c>
       <c r="AA30" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>180</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ30" t="s">
         <v>186</v>
       </c>
-      <c r="AB30">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>187</v>
-      </c>
-      <c r="AE30" t="s">
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
+        <v>4.74</v>
+      </c>
+      <c r="AM30" t="s">
         <v>190</v>
-      </c>
-      <c r="AF30">
-        <v>0</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>194</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>198</v>
-      </c>
-      <c r="AI30" t="s">
-        <v>205</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>209</v>
-      </c>
-      <c r="AK30">
-        <v>2</v>
-      </c>
-      <c r="AL30">
-        <v>8.964269999999999</v>
-      </c>
-      <c r="AM30" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="31" spans="1:39">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>91</v>
-      </c>
-      <c r="C31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31">
-        <v>41</v>
-      </c>
-      <c r="F31" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31">
-        <v>92</v>
-      </c>
-      <c r="H31" t="s">
-        <v>41</v>
-      </c>
-      <c r="J31">
-        <v>9712</v>
-      </c>
-      <c r="K31" t="s">
-        <v>42</v>
-      </c>
-      <c r="L31" t="s">
-        <v>55</v>
-      </c>
-      <c r="M31">
-        <v>201141</v>
-      </c>
-      <c r="N31" t="s">
-        <v>75</v>
-      </c>
-      <c r="P31" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q31">
-        <v>2091543</v>
-      </c>
-      <c r="R31" t="s">
-        <v>99</v>
-      </c>
-      <c r="S31" t="s">
-        <v>122</v>
-      </c>
-      <c r="T31">
-        <v>7</v>
-      </c>
-      <c r="U31" t="s">
-        <v>127</v>
-      </c>
-      <c r="V31">
-        <v>70</v>
-      </c>
-      <c r="W31" t="s">
-        <v>135</v>
-      </c>
-      <c r="X31" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z31">
-        <v>3.28389</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB31">
-        <v>0</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE31">
-        <v>0</v>
-      </c>
-      <c r="AF31">
-        <v>0</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>197</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>201</v>
-      </c>
-      <c r="AI31" t="s">
-        <v>203</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>207</v>
-      </c>
-      <c r="AK31">
-        <v>8</v>
-      </c>
-      <c r="AL31">
-        <v>26.27112</v>
-      </c>
-      <c r="AM31" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="32" spans="1:39">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>91</v>
-      </c>
-      <c r="C32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32">
-        <v>41</v>
-      </c>
-      <c r="F32" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32">
-        <v>92</v>
-      </c>
-      <c r="H32" t="s">
-        <v>41</v>
-      </c>
-      <c r="J32">
-        <v>9712</v>
-      </c>
-      <c r="K32" t="s">
-        <v>42</v>
-      </c>
-      <c r="L32" t="s">
-        <v>56</v>
-      </c>
-      <c r="M32">
-        <v>301008</v>
-      </c>
-      <c r="N32" t="s">
-        <v>76</v>
-      </c>
-      <c r="P32" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q32">
-        <v>2091543</v>
-      </c>
-      <c r="R32" t="s">
-        <v>99</v>
-      </c>
-      <c r="S32" t="s">
-        <v>122</v>
-      </c>
-      <c r="T32">
-        <v>7</v>
-      </c>
-      <c r="U32" t="s">
-        <v>127</v>
-      </c>
-      <c r="V32">
-        <v>70</v>
-      </c>
-      <c r="W32" t="s">
-        <v>135</v>
-      </c>
-      <c r="X32" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z32">
-        <v>3.28389</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
-      <c r="AF32">
-        <v>0</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>197</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>201</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>203</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>207</v>
-      </c>
-      <c r="AK32">
-        <v>8</v>
-      </c>
-      <c r="AL32">
-        <v>26.27112</v>
-      </c>
-      <c r="AM32" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="33" spans="1:39">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>91</v>
-      </c>
-      <c r="C33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33">
-        <v>41</v>
-      </c>
-      <c r="F33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33">
-        <v>92</v>
-      </c>
-      <c r="H33" t="s">
-        <v>41</v>
-      </c>
-      <c r="J33">
-        <v>9712</v>
-      </c>
-      <c r="K33" t="s">
-        <v>42</v>
-      </c>
-      <c r="L33" t="s">
-        <v>57</v>
-      </c>
-      <c r="M33">
-        <v>612003</v>
-      </c>
-      <c r="N33" t="s">
-        <v>77</v>
-      </c>
-      <c r="P33" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q33">
-        <v>2091628</v>
-      </c>
-      <c r="R33" t="s">
-        <v>100</v>
-      </c>
-      <c r="S33" t="s">
-        <v>123</v>
-      </c>
-      <c r="T33">
-        <v>7</v>
-      </c>
-      <c r="U33" t="s">
-        <v>127</v>
-      </c>
-      <c r="V33">
-        <v>75</v>
-      </c>
-      <c r="W33" t="s">
-        <v>136</v>
-      </c>
-      <c r="X33" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z33">
-        <v>13.001141</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB33">
-        <v>0</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>187</v>
-      </c>
-      <c r="AE33">
-        <v>0</v>
-      </c>
-      <c r="AF33">
-        <v>0</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>196</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>200</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>204</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>208</v>
-      </c>
-      <c r="AK33">
-        <v>1</v>
-      </c>
-      <c r="AL33">
-        <v>13.001141</v>
-      </c>
-      <c r="AM33" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="34" spans="1:39">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>91</v>
-      </c>
-      <c r="C34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34">
-        <v>41</v>
-      </c>
-      <c r="F34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34">
-        <v>92</v>
-      </c>
-      <c r="H34" t="s">
-        <v>41</v>
-      </c>
-      <c r="J34">
-        <v>9712</v>
-      </c>
-      <c r="K34" t="s">
-        <v>42</v>
-      </c>
-      <c r="L34" t="s">
-        <v>46</v>
-      </c>
-      <c r="M34">
-        <v>601014</v>
-      </c>
-      <c r="N34" t="s">
-        <v>74</v>
-      </c>
-      <c r="P34" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q34">
-        <v>2091703</v>
-      </c>
-      <c r="R34" t="s">
-        <v>101</v>
-      </c>
-      <c r="S34" t="s">
-        <v>124</v>
-      </c>
-      <c r="T34">
-        <v>7</v>
-      </c>
-      <c r="U34" t="s">
-        <v>127</v>
-      </c>
-      <c r="V34">
-        <v>78</v>
-      </c>
-      <c r="W34" t="s">
-        <v>137</v>
-      </c>
-      <c r="X34" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>182</v>
-      </c>
-      <c r="Z34">
-        <v>5.390988999999999</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB34">
-        <v>0</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE34">
-        <v>0</v>
-      </c>
-      <c r="AF34">
-        <v>0</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>196</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>200</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>206</v>
-      </c>
-      <c r="AK34">
-        <v>10</v>
-      </c>
-      <c r="AL34">
-        <v>53.90988999999999</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="35" spans="1:39">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>91</v>
-      </c>
-      <c r="C35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35">
-        <v>41</v>
-      </c>
-      <c r="F35" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35">
-        <v>92</v>
-      </c>
-      <c r="H35" t="s">
-        <v>41</v>
-      </c>
-      <c r="J35">
-        <v>9712</v>
-      </c>
-      <c r="K35" t="s">
-        <v>42</v>
-      </c>
-      <c r="L35" t="s">
-        <v>47</v>
-      </c>
-      <c r="M35">
-        <v>906024</v>
-      </c>
-      <c r="N35" t="s">
-        <v>64</v>
-      </c>
-      <c r="P35" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q35">
-        <v>2091727</v>
-      </c>
-      <c r="R35" t="s">
-        <v>102</v>
-      </c>
-      <c r="S35" t="s">
-        <v>116</v>
-      </c>
-      <c r="T35">
-        <v>7</v>
-      </c>
-      <c r="U35" t="s">
-        <v>127</v>
-      </c>
-      <c r="V35">
-        <v>78</v>
-      </c>
-      <c r="W35" t="s">
-        <v>137</v>
-      </c>
-      <c r="X35" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z35">
-        <v>15.399705</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB35">
-        <v>0</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE35">
-        <v>0</v>
-      </c>
-      <c r="AF35">
-        <v>0</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>194</v>
-      </c>
-      <c r="AH35" t="s">
-        <v>198</v>
-      </c>
-      <c r="AI35" t="s">
-        <v>204</v>
-      </c>
-      <c r="AJ35" t="s">
-        <v>208</v>
-      </c>
-      <c r="AK35">
-        <v>3</v>
-      </c>
-      <c r="AL35">
-        <v>46.19911499999999</v>
-      </c>
-      <c r="AM35" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="36" spans="1:39">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>91</v>
-      </c>
-      <c r="C36" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36">
-        <v>41</v>
-      </c>
-      <c r="F36" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36">
-        <v>92</v>
-      </c>
-      <c r="H36" t="s">
-        <v>41</v>
-      </c>
-      <c r="J36">
-        <v>9712</v>
-      </c>
-      <c r="K36" t="s">
-        <v>42</v>
-      </c>
-      <c r="L36" t="s">
-        <v>48</v>
-      </c>
-      <c r="M36">
-        <v>602611</v>
-      </c>
-      <c r="N36" t="s">
-        <v>65</v>
-      </c>
-      <c r="P36" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q36">
-        <v>2091727</v>
-      </c>
-      <c r="R36" t="s">
-        <v>102</v>
-      </c>
-      <c r="S36" t="s">
-        <v>116</v>
-      </c>
-      <c r="T36">
-        <v>7</v>
-      </c>
-      <c r="U36" t="s">
-        <v>127</v>
-      </c>
-      <c r="V36">
-        <v>78</v>
-      </c>
-      <c r="W36" t="s">
-        <v>137</v>
-      </c>
-      <c r="X36" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z36">
-        <v>15.399705</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB36">
-        <v>0</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE36">
-        <v>0</v>
-      </c>
-      <c r="AF36">
-        <v>0</v>
-      </c>
-      <c r="AG36" t="s">
-        <v>194</v>
-      </c>
-      <c r="AH36" t="s">
-        <v>198</v>
-      </c>
-      <c r="AI36" t="s">
-        <v>204</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>208</v>
-      </c>
-      <c r="AK36">
-        <v>1</v>
-      </c>
-      <c r="AL36">
-        <v>15.399705</v>
-      </c>
-      <c r="AM36" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="37" spans="1:39">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>91</v>
-      </c>
-      <c r="C37" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37">
-        <v>41</v>
-      </c>
-      <c r="F37" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37">
-        <v>92</v>
-      </c>
-      <c r="H37" t="s">
-        <v>41</v>
-      </c>
-      <c r="J37">
-        <v>9712</v>
-      </c>
-      <c r="K37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L37" t="s">
-        <v>56</v>
-      </c>
-      <c r="M37">
-        <v>301008</v>
-      </c>
-      <c r="N37" t="s">
-        <v>76</v>
-      </c>
-      <c r="P37" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q37">
-        <v>2092300</v>
-      </c>
-      <c r="R37" t="s">
-        <v>103</v>
-      </c>
-      <c r="S37" t="s">
-        <v>113</v>
-      </c>
-      <c r="T37">
-        <v>82</v>
-      </c>
-      <c r="U37" t="s">
-        <v>126</v>
-      </c>
-      <c r="V37">
-        <v>822</v>
-      </c>
-      <c r="W37" t="s">
-        <v>128</v>
-      </c>
-      <c r="X37" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z37">
-        <v>3.08448</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB37">
-        <v>0</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>187</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>187</v>
-      </c>
-      <c r="AE37">
-        <v>0</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>194</v>
-      </c>
-      <c r="AH37" t="s">
-        <v>198</v>
-      </c>
-      <c r="AI37" t="s">
-        <v>203</v>
-      </c>
-      <c r="AJ37" t="s">
-        <v>207</v>
-      </c>
-      <c r="AK37">
-        <v>3</v>
-      </c>
-      <c r="AL37">
-        <v>9.253440000000001</v>
-      </c>
-      <c r="AM37" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="38" spans="1:39">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>91</v>
-      </c>
-      <c r="C38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38">
-        <v>41</v>
-      </c>
-      <c r="F38" t="s">
-        <v>40</v>
-      </c>
-      <c r="G38">
-        <v>92</v>
-      </c>
-      <c r="H38" t="s">
-        <v>41</v>
-      </c>
-      <c r="J38">
-        <v>9712</v>
-      </c>
-      <c r="K38" t="s">
-        <v>42</v>
-      </c>
-      <c r="L38" t="s">
-        <v>44</v>
-      </c>
-      <c r="M38">
-        <v>802018</v>
-      </c>
-      <c r="N38" t="s">
-        <v>63</v>
-      </c>
-      <c r="P38" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q38">
-        <v>2092492</v>
-      </c>
-      <c r="R38" t="s">
-        <v>104</v>
-      </c>
-      <c r="S38" t="s">
-        <v>125</v>
-      </c>
-      <c r="T38">
-        <v>7</v>
-      </c>
-      <c r="U38" t="s">
-        <v>127</v>
-      </c>
-      <c r="V38">
-        <v>71</v>
-      </c>
-      <c r="W38" t="s">
-        <v>134</v>
-      </c>
-      <c r="X38" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z38">
-        <v>4.74</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>189</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>187</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>190</v>
-      </c>
-      <c r="AF38">
-        <v>0</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>196</v>
-      </c>
-      <c r="AH38" t="s">
-        <v>200</v>
-      </c>
-      <c r="AI38" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ38" t="s">
-        <v>206</v>
-      </c>
-      <c r="AK38">
-        <v>1</v>
-      </c>
-      <c r="AL38">
-        <v>4.74</v>
-      </c>
-      <c r="AM38" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/salida/reporte 3 Grupo Carosa.xlsx
+++ b/salida/reporte 3 Grupo Carosa.xlsx
@@ -130,7 +130,7 @@
     <t>COMPAÑÍA</t>
   </si>
   <si>
-    <t>Abr 2019</t>
+    <t>Abr. 19</t>
   </si>
   <si>
     <t>201904</t>
